--- a/external_analysis/brand_profitability.xlsx
+++ b/external_analysis/brand_profitability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\external_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A3FDDC-1FC5-4FE7-9DDB-AFDD23D1EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7E7DEE-5BA2-4946-B812-A5CFD1095C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,17 +194,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -217,31 +207,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,7 +504,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D41"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -777,7 +747,7 @@
         <v>73752</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -791,7 +761,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +775,7 @@
         <v>40604.473230000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -819,7 +789,7 @@
         <v>31147.52677</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,7 +803,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -847,7 +817,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -861,7 +831,7 @@
         <v>26531</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -875,7 +845,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -889,7 +859,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -903,7 +873,7 @@
         <v>70835</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
@@ -917,7 +887,7 @@
         <v>-39687.473230000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -931,7 +901,7 @@
         <v>-709</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -998,17 +968,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:D41">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
